--- a/Code/Results/Cases/Case_4_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.871078133526453</v>
+        <v>1.570987914975575</v>
       </c>
       <c r="C2">
-        <v>0.3130430351372979</v>
+        <v>0.1373413713752711</v>
       </c>
       <c r="D2">
-        <v>0.1889247040806623</v>
+        <v>0.0763965986979116</v>
       </c>
       <c r="E2">
-        <v>0.01915733277601639</v>
+        <v>0.03427439856695003</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008402939164711552</v>
+        <v>0.002603033726467485</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.756067297670882</v>
+        <v>2.368000303250767</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.063024910292114</v>
+        <v>1.499801105360206</v>
       </c>
       <c r="L2">
-        <v>0.3193353964766459</v>
+        <v>0.2836558607769746</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.618860623799833</v>
+        <v>3.77726788383147</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.643989658443815</v>
+        <v>1.523222088194643</v>
       </c>
       <c r="C3">
-        <v>0.2710258866100048</v>
+        <v>0.1264070970914304</v>
       </c>
       <c r="D3">
-        <v>0.1631860221278316</v>
+        <v>0.06961488046250963</v>
       </c>
       <c r="E3">
-        <v>0.01771496911287151</v>
+        <v>0.03412303381348636</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008485360078890514</v>
+        <v>0.002608093193199091</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.658984372320035</v>
+        <v>2.348524274835654</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.805796546876905</v>
+        <v>1.442416361311984</v>
       </c>
       <c r="L3">
-        <v>0.2830261793403395</v>
+        <v>0.2759165171138847</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.574658001119985</v>
+        <v>3.765180410144566</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.507461769782367</v>
+        <v>1.49489416250006</v>
       </c>
       <c r="C4">
-        <v>0.2457534435463344</v>
+        <v>0.1197698222514134</v>
       </c>
       <c r="D4">
-        <v>0.1476497839982045</v>
+        <v>0.06549201376698477</v>
       </c>
       <c r="E4">
-        <v>0.01685550810949188</v>
+        <v>0.0340453355302941</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008537352392095492</v>
+        <v>0.002611362910980765</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.601836993122419</v>
+        <v>2.337387923276978</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.651121835451875</v>
+        <v>1.408146798667019</v>
       </c>
       <c r="L4">
-        <v>0.2612402899579536</v>
+        <v>0.2713318479904956</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.549940079547767</v>
+        <v>3.75846783310709</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.452476313950058</v>
+        <v>1.483601334574672</v>
       </c>
       <c r="C5">
-        <v>0.235569769031315</v>
+        <v>0.1170840324575693</v>
       </c>
       <c r="D5">
-        <v>0.1413769229362458</v>
+        <v>0.0638221287052545</v>
       </c>
       <c r="E5">
-        <v>0.01651138608117364</v>
+        <v>0.03401750995338126</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008558902796833521</v>
+        <v>0.002612736520704419</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.579118421147129</v>
+        <v>2.333056068640204</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.588817726080833</v>
+        <v>1.394423444462205</v>
       </c>
       <c r="L5">
-        <v>0.2524768439699727</v>
+        <v>0.2695055226053</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.540435949819127</v>
+        <v>3.755910246589224</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.44338311135607</v>
+        <v>1.481741315149463</v>
       </c>
       <c r="C6">
-        <v>0.2338852480330047</v>
+        <v>0.1166391962777311</v>
       </c>
       <c r="D6">
-        <v>0.1403385904056762</v>
+        <v>0.06354545892706653</v>
       </c>
       <c r="E6">
-        <v>0.01645460137464916</v>
+        <v>0.03401312143354573</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008562503566079239</v>
+        <v>0.002612967098613671</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.575379036304284</v>
+        <v>2.332349215876079</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.578513489258398</v>
+        <v>1.392159269522836</v>
       </c>
       <c r="L6">
-        <v>0.2510282257858734</v>
+        <v>0.269204794083052</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.538891014851799</v>
+        <v>3.755496288479776</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.506717682676083</v>
+        <v>1.49474084777637</v>
       </c>
       <c r="C7">
-        <v>0.2456156589225031</v>
+        <v>0.1197335243509769</v>
       </c>
       <c r="D7">
-        <v>0.147564961357034</v>
+        <v>0.0654694519121648</v>
       </c>
       <c r="E7">
-        <v>0.01685084298438611</v>
+        <v>0.03404494472197683</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008537641538510409</v>
+        <v>0.002611381268973497</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.601528359567567</v>
+        <v>2.337328667620312</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.650278755044354</v>
+        <v>1.407960742923962</v>
       </c>
       <c r="L7">
-        <v>0.2611216563468162</v>
+        <v>0.2713070477557977</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.549809652455295</v>
+        <v>3.758432621197073</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.792124901357283</v>
+        <v>1.554310253631741</v>
       </c>
       <c r="C8">
-        <v>0.2984354293301976</v>
+        <v>0.1335552125700019</v>
       </c>
       <c r="D8">
-        <v>0.1799888791932034</v>
+        <v>0.07404964546738313</v>
       </c>
       <c r="E8">
-        <v>0.01865428770760857</v>
+        <v>0.03421904759935224</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008431079532912401</v>
+        <v>0.002604744445869289</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.722050972236829</v>
+        <v>2.361114106790353</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.973596085500418</v>
+        <v>1.479814035281549</v>
       </c>
       <c r="L8">
-        <v>0.3067021785683863</v>
+        <v>0.2809525384716949</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.603091252866534</v>
+        <v>3.772952631395228</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.378841932733621</v>
+        <v>1.679097708792312</v>
       </c>
       <c r="C9">
-        <v>0.4070553632883218</v>
+        <v>0.1612791036452563</v>
       </c>
       <c r="D9">
-        <v>0.2461403556901161</v>
+        <v>0.0912084376433171</v>
       </c>
       <c r="E9">
-        <v>0.02242129782661806</v>
+        <v>0.03468123819504321</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008232377677360481</v>
+        <v>0.002593018079784011</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.980402843946038</v>
+        <v>2.414302316194593</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.638206155476524</v>
+        <v>1.628422918963281</v>
       </c>
       <c r="L9">
-        <v>0.4007789654822318</v>
+        <v>0.3012012764429386</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.728820394474468</v>
+        <v>3.807078529464491</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.832582988571289</v>
+        <v>1.775698442909402</v>
       </c>
       <c r="C10">
-        <v>0.4912840245166308</v>
+        <v>0.1820461542558576</v>
       </c>
       <c r="D10">
-        <v>0.2970015420139731</v>
+        <v>0.1040286019230621</v>
       </c>
       <c r="E10">
-        <v>0.0253648481972224</v>
+        <v>0.0350943284868297</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008091526384358257</v>
+        <v>0.002585179243632112</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.187478614397293</v>
+        <v>2.457407964089995</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.152439412946194</v>
+        <v>1.742384632299206</v>
       </c>
       <c r="L10">
-        <v>0.4737869007042406</v>
+        <v>0.3169021094258397</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.83729027604133</v>
+        <v>3.835636104396571</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.045510943925194</v>
+        <v>1.820726683132875</v>
       </c>
       <c r="C11">
-        <v>0.5309113656829823</v>
+        <v>0.1915847202267855</v>
       </c>
       <c r="D11">
-        <v>0.3208073970293412</v>
+        <v>0.1099095811635067</v>
       </c>
       <c r="E11">
-        <v>0.02675109191725511</v>
+        <v>0.03529820318210142</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008028280325472417</v>
+        <v>0.002581779862081879</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.286416593429053</v>
+        <v>2.477901354746578</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.393879956407659</v>
+        <v>1.795285199514296</v>
       </c>
       <c r="L11">
-        <v>0.5081069709094805</v>
+        <v>0.3242262759416974</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.890938175355302</v>
+        <v>3.849393405968215</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.12722966098022</v>
+        <v>1.837934493259979</v>
       </c>
       <c r="C12">
-        <v>0.5461392790530226</v>
+        <v>0.1952102218314735</v>
       </c>
       <c r="D12">
-        <v>0.3299350969490717</v>
+        <v>0.1121437704218664</v>
       </c>
       <c r="E12">
-        <v>0.02728365621891449</v>
+        <v>0.03537769725773288</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008004422898340025</v>
+        <v>0.002580516408040404</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.324657339590772</v>
+        <v>2.485789449519629</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.48656609539438</v>
+        <v>1.81547078995726</v>
       </c>
       <c r="L12">
-        <v>0.521287423436732</v>
+        <v>0.3270260532519984</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.911949633290334</v>
+        <v>3.854713781584337</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.10957911005022</v>
+        <v>1.83422150754626</v>
       </c>
       <c r="C13">
-        <v>0.5428492279222041</v>
+        <v>0.1944288021523164</v>
       </c>
       <c r="D13">
-        <v>0.3279639708746203</v>
+        <v>0.1116622757520247</v>
       </c>
       <c r="E13">
-        <v>0.02716860553815437</v>
+        <v>0.03536047494185901</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008009557367467861</v>
+        <v>0.002580787458279587</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.316385417324653</v>
+        <v>2.484084919694169</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.466545463518401</v>
+        <v>1.811116627344461</v>
       </c>
       <c r="L13">
-        <v>0.5184401570999881</v>
+        <v>0.3264219003736173</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.907392141468421</v>
+        <v>3.853563006875817</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.05221126865132</v>
+        <v>1.822139237577971</v>
       </c>
       <c r="C14">
-        <v>0.5321595213485182</v>
+        <v>0.1918827211096072</v>
       </c>
       <c r="D14">
-        <v>0.3215559714014518</v>
+        <v>0.1100932443474534</v>
       </c>
       <c r="E14">
-        <v>0.02679474837471574</v>
+        <v>0.03530469730936048</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008026315870064415</v>
+        <v>0.002581675440392985</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.28954656924553</v>
+        <v>2.478547750915993</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.401478994193837</v>
+        <v>1.796942801929674</v>
       </c>
       <c r="L14">
-        <v>0.5091874901722662</v>
+        <v>0.3244560879438581</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.892652370818723</v>
+        <v>3.849828892794648</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.017218215286903</v>
+        <v>1.814758912563548</v>
       </c>
       <c r="C15">
-        <v>0.5256417297969165</v>
+        <v>0.1903249337452735</v>
       </c>
       <c r="D15">
-        <v>0.3176461279565785</v>
+        <v>0.1091331078698943</v>
       </c>
       <c r="E15">
-        <v>0.02656676937871261</v>
+        <v>0.03527083017143084</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008036592138588791</v>
+        <v>0.002582222452926986</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.273210923496492</v>
+        <v>2.475172719954202</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.361793364326729</v>
+        <v>1.788280919153635</v>
       </c>
       <c r="L15">
-        <v>0.5035447398105219</v>
+        <v>0.3232553968264398</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.883716956794473</v>
+        <v>3.847556085066202</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.81881123295625</v>
+        <v>1.772777615670009</v>
       </c>
       <c r="C16">
-        <v>0.4887234229703097</v>
+        <v>0.1814246532145489</v>
       </c>
       <c r="D16">
-        <v>0.2954606182785398</v>
+        <v>0.1036452645415977</v>
       </c>
       <c r="E16">
-        <v>0.02527527310123645</v>
+        <v>0.03508132560064681</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008095674122245951</v>
+        <v>0.002585404741217931</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.181115876814076</v>
+        <v>2.456086513246774</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.136826556517804</v>
+        <v>1.738948850040344</v>
       </c>
       <c r="L16">
-        <v>0.4715683584771142</v>
+        <v>0.3164271272315204</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.833877253602338</v>
+        <v>3.83475250276652</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.698865687346711</v>
+        <v>1.747301603238782</v>
       </c>
       <c r="C17">
-        <v>0.466433479799548</v>
+        <v>0.1759882689140113</v>
       </c>
       <c r="D17">
-        <v>0.2820331235787137</v>
+        <v>0.1002913057590433</v>
       </c>
       <c r="E17">
-        <v>0.02449563792644938</v>
+        <v>0.03496915528938693</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008132113129024621</v>
+        <v>0.002587399534941125</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.125895197704466</v>
+        <v>2.444604626204793</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.000860434795925</v>
+        <v>1.708957142142594</v>
       </c>
       <c r="L17">
-        <v>0.452252481743102</v>
+        <v>0.3122848579057518</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.804456596970709</v>
+        <v>3.82709460807115</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.630479752490317</v>
+        <v>1.732750470378335</v>
       </c>
       <c r="C18">
-        <v>0.4537340856657011</v>
+        <v>0.1728700020622966</v>
       </c>
       <c r="D18">
-        <v>0.27437182127764</v>
+        <v>0.09836680305932077</v>
       </c>
       <c r="E18">
-        <v>0.02405160048055954</v>
+        <v>0.03490614012584281</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008153151573728756</v>
+        <v>0.002588562571003683</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.094573444228899</v>
+        <v>2.438083762371008</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.923351648387182</v>
+        <v>1.691806302035587</v>
       </c>
       <c r="L18">
-        <v>0.4412451749431057</v>
+        <v>0.3099194357904622</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.787934605278025</v>
+        <v>3.822762083330616</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.607424837957069</v>
+        <v>1.727841203557887</v>
       </c>
       <c r="C19">
-        <v>0.4494541572992716</v>
+        <v>0.1718156783070697</v>
       </c>
       <c r="D19">
-        <v>0.2717879789631894</v>
+        <v>0.09771598628464062</v>
       </c>
       <c r="E19">
-        <v>0.02390198676764399</v>
+        <v>0.03488506239521527</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008160289274157982</v>
+        <v>0.002588959052649398</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.084041290373051</v>
+        <v>2.435890186478233</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.897222878148909</v>
+        <v>1.686016396885805</v>
       </c>
       <c r="L19">
-        <v>0.4375352173624236</v>
+        <v>0.3091214776698479</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.782407045585302</v>
+        <v>3.821307529253772</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.711570599798904</v>
+        <v>1.750003007072905</v>
       </c>
       <c r="C20">
-        <v>0.4687935116648418</v>
+        <v>0.1765660893777294</v>
       </c>
       <c r="D20">
-        <v>0.2834559884974794</v>
+        <v>0.1006478627091525</v>
       </c>
       <c r="E20">
-        <v>0.0245781715232809</v>
+        <v>0.03498094056118717</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008128226068717071</v>
+        <v>0.002587185563070547</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.131727381940081</v>
+        <v>2.445818276704827</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.015261081605502</v>
+        <v>1.712139495295844</v>
       </c>
       <c r="L20">
-        <v>0.4542978933289135</v>
+        <v>0.3127240386236139</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.807546550144963</v>
+        <v>3.827902338431244</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.069030788214093</v>
+        <v>1.825683837560348</v>
       </c>
       <c r="C21">
-        <v>0.5352930373116749</v>
+        <v>0.1926301993567279</v>
       </c>
       <c r="D21">
-        <v>0.3234349469794751</v>
+        <v>0.1105539106380888</v>
       </c>
       <c r="E21">
-        <v>0.0269043452313884</v>
+        <v>0.03532101839856949</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008021391209078743</v>
+        <v>0.002581413973158118</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.297407947460002</v>
+        <v>2.480170681912384</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.420554928563149</v>
+        <v>1.801101829302922</v>
       </c>
       <c r="L21">
-        <v>0.5119000108793585</v>
+        <v>0.3250327805373274</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.896962240352678</v>
+        <v>3.850922681232873</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.309074562925446</v>
+        <v>1.876058718375077</v>
       </c>
       <c r="C22">
-        <v>0.580066523989899</v>
+        <v>0.2032075803438147</v>
       </c>
       <c r="D22">
-        <v>0.3502311663193751</v>
+        <v>0.1170700613010354</v>
       </c>
       <c r="E22">
-        <v>0.02846953300702992</v>
+        <v>0.03555663196768855</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007952092745547597</v>
+        <v>0.002577780675061092</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.410260035763841</v>
+        <v>2.50336650112294</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.69286902282397</v>
+        <v>1.860137868114862</v>
       </c>
       <c r="L22">
-        <v>0.5506337450316607</v>
+        <v>0.3332304670214228</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.959501644107519</v>
+        <v>3.866613819752445</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.180316266513785</v>
+        <v>1.84908891176093</v>
       </c>
       <c r="C23">
-        <v>0.5560377974945538</v>
+        <v>0.1975549477419065</v>
       </c>
       <c r="D23">
-        <v>0.3358623238207343</v>
+        <v>0.113588381330942</v>
       </c>
       <c r="E23">
-        <v>0.02762975230339393</v>
+        <v>0.03542965990744662</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007989040320268801</v>
+        <v>0.002579707180022289</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.349576380100444</v>
+        <v>2.490918157694296</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.546785161902676</v>
+        <v>1.828547072354127</v>
       </c>
       <c r="L23">
-        <v>0.5298522942565</v>
+        <v>0.3288411432033485</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.925719751392961</v>
+        <v>3.858179856782499</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.705824937216278</v>
+        <v>1.748781405400223</v>
       </c>
       <c r="C24">
-        <v>0.4677261843027338</v>
+        <v>0.176304834396916</v>
       </c>
       <c r="D24">
-        <v>0.2828125307809159</v>
+        <v>0.1004866516970679</v>
       </c>
       <c r="E24">
-        <v>0.02454084510998911</v>
+        <v>0.03497560785148224</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008129983128545795</v>
+        <v>0.002587282249342588</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.129089333508915</v>
+        <v>2.445269335446469</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.008748506710219</v>
+        <v>1.710700467596894</v>
       </c>
       <c r="L24">
-        <v>0.4533728604334328</v>
+        <v>0.3125254351216995</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.80614836598815</v>
+        <v>3.827536945198858</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.216625627152837</v>
+        <v>1.644479860987872</v>
       </c>
       <c r="C25">
-        <v>0.3770007522683159</v>
+        <v>0.1537106092235661</v>
       </c>
       <c r="D25">
-        <v>0.2279025086616997</v>
+        <v>0.08652978800058975</v>
       </c>
       <c r="E25">
-        <v>0.02137410534552586</v>
+        <v>0.03454328535397799</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008285141902276321</v>
+        <v>0.002596053363753071</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.907783790377223</v>
+        <v>2.399208891414673</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.454431716762542</v>
+        <v>1.587387057201795</v>
       </c>
       <c r="L25">
-        <v>0.3747266652369063</v>
+        <v>0.2955795338682776</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.692229245013607</v>
+        <v>3.797237404604459</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.570987914975575</v>
+        <v>1.871078133526453</v>
       </c>
       <c r="C2">
-        <v>0.1373413713752711</v>
+        <v>0.313043035137099</v>
       </c>
       <c r="D2">
-        <v>0.0763965986979116</v>
+        <v>0.1889247040808044</v>
       </c>
       <c r="E2">
-        <v>0.03427439856695003</v>
+        <v>0.01915733277602705</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002603033726467485</v>
+        <v>0.0008402939165315669</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.368000303250767</v>
+        <v>1.756067297670896</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.499801105360206</v>
+        <v>2.063024910292143</v>
       </c>
       <c r="L2">
-        <v>0.2836558607769746</v>
+        <v>0.3193353964765322</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.77726788383147</v>
+        <v>2.61886062379989</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.523222088194643</v>
+        <v>1.643989658443786</v>
       </c>
       <c r="C3">
-        <v>0.1264070970914304</v>
+        <v>0.2710258866102606</v>
       </c>
       <c r="D3">
-        <v>0.06961488046250963</v>
+        <v>0.1631860221276185</v>
       </c>
       <c r="E3">
-        <v>0.03412303381348636</v>
+        <v>0.01771496911286974</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002608093193199091</v>
+        <v>0.0008485360078346137</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.348524274835654</v>
+        <v>1.65898437232002</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.442416361311984</v>
+        <v>1.805796546876735</v>
       </c>
       <c r="L3">
-        <v>0.2759165171138847</v>
+        <v>0.2830261793402684</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.765180410144566</v>
+        <v>2.57465800112</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.49489416250006</v>
+        <v>1.507461769782509</v>
       </c>
       <c r="C4">
-        <v>0.1197698222514134</v>
+        <v>0.245753443546306</v>
       </c>
       <c r="D4">
-        <v>0.06549201376698477</v>
+        <v>0.1476497839982898</v>
       </c>
       <c r="E4">
-        <v>0.0340453355302941</v>
+        <v>0.01685550810951852</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002611362910980765</v>
+        <v>0.0008537352392010153</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.337387923276978</v>
+        <v>1.601836993122433</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.408146798667019</v>
+        <v>1.651121835451875</v>
       </c>
       <c r="L4">
-        <v>0.2713318479904956</v>
+        <v>0.2612402899579251</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.75846783310709</v>
+        <v>2.549940079547881</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.483601334574672</v>
+        <v>1.452476313949973</v>
       </c>
       <c r="C5">
-        <v>0.1170840324575693</v>
+        <v>0.2355697690317129</v>
       </c>
       <c r="D5">
-        <v>0.0638221287052545</v>
+        <v>0.1413769229364448</v>
       </c>
       <c r="E5">
-        <v>0.03401750995338126</v>
+        <v>0.01651138608117364</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002612736520704419</v>
+        <v>0.0008558902796746835</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.333056068640204</v>
+        <v>1.579118421147115</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.394423444462205</v>
+        <v>1.588817726080862</v>
       </c>
       <c r="L5">
-        <v>0.2695055226053</v>
+        <v>0.2524768439699017</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.755910246589224</v>
+        <v>2.540435949819113</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.481741315149463</v>
+        <v>1.443383111355928</v>
       </c>
       <c r="C6">
-        <v>0.1166391962777311</v>
+        <v>0.2338852480329479</v>
       </c>
       <c r="D6">
-        <v>0.06354545892706653</v>
+        <v>0.140338590405662</v>
       </c>
       <c r="E6">
-        <v>0.03401312143354573</v>
+        <v>0.01645460137466337</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002612967098613671</v>
+        <v>0.0008562503566064</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.332349215876079</v>
+        <v>1.575379036304312</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.392159269522836</v>
+        <v>1.578513489258427</v>
       </c>
       <c r="L6">
-        <v>0.269204794083052</v>
+        <v>0.2510282257858734</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.755496288479776</v>
+        <v>2.538891014851913</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.49474084777637</v>
+        <v>1.506717682676083</v>
       </c>
       <c r="C7">
-        <v>0.1197335243509769</v>
+        <v>0.2456156589226737</v>
       </c>
       <c r="D7">
-        <v>0.0654694519121648</v>
+        <v>0.1475649613571335</v>
       </c>
       <c r="E7">
-        <v>0.03404494472197683</v>
+        <v>0.016850842984379</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002611381268973497</v>
+        <v>0.000853764153847593</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.337328667620312</v>
+        <v>1.601528359567595</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.407960742923962</v>
+        <v>1.650278755044354</v>
       </c>
       <c r="L7">
-        <v>0.2713070477557977</v>
+        <v>0.2611216563468872</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.758432621197073</v>
+        <v>2.549809652455252</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.554310253631741</v>
+        <v>1.792124901357084</v>
       </c>
       <c r="C8">
-        <v>0.1335552125700019</v>
+        <v>0.2984354293301976</v>
       </c>
       <c r="D8">
-        <v>0.07404964546738313</v>
+        <v>0.1799888791932034</v>
       </c>
       <c r="E8">
-        <v>0.03421904759935224</v>
+        <v>0.01865428770767075</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002604744445869289</v>
+        <v>0.0008431079532890322</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.361114106790353</v>
+        <v>1.722050972236858</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.479814035281549</v>
+        <v>1.973596085500418</v>
       </c>
       <c r="L8">
-        <v>0.2809525384716949</v>
+        <v>0.3067021785683437</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.772952631395228</v>
+        <v>2.603091252866562</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.679097708792312</v>
+        <v>2.378841932733621</v>
       </c>
       <c r="C9">
-        <v>0.1612791036452563</v>
+        <v>0.4070553632882934</v>
       </c>
       <c r="D9">
-        <v>0.0912084376433171</v>
+        <v>0.2461403556901871</v>
       </c>
       <c r="E9">
-        <v>0.03468123819504321</v>
+        <v>0.0224212978266678</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002593018079784011</v>
+        <v>0.0008232377676722795</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.414302316194593</v>
+        <v>1.980402843946024</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.628422918963281</v>
+        <v>2.63820615547661</v>
       </c>
       <c r="L9">
-        <v>0.3012012764429386</v>
+        <v>0.4007789654822886</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.807078529464491</v>
+        <v>2.72882039447444</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.775698442909402</v>
+        <v>2.832582988571232</v>
       </c>
       <c r="C10">
-        <v>0.1820461542558576</v>
+        <v>0.4912840245163466</v>
       </c>
       <c r="D10">
-        <v>0.1040286019230621</v>
+        <v>0.2970015420142005</v>
       </c>
       <c r="E10">
-        <v>0.0350943284868297</v>
+        <v>0.02536484819722062</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002585179243632112</v>
+        <v>0.000809152638492675</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.457407964089995</v>
+        <v>2.187478614397293</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.742384632299206</v>
+        <v>3.152439412946137</v>
       </c>
       <c r="L10">
-        <v>0.3169021094258397</v>
+        <v>0.4737869007041979</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.835636104396571</v>
+        <v>2.837290276041301</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.820726683132875</v>
+        <v>3.045510943925194</v>
       </c>
       <c r="C11">
-        <v>0.1915847202267855</v>
+        <v>0.5309113656827265</v>
       </c>
       <c r="D11">
-        <v>0.1099095811635067</v>
+        <v>0.3208073970293981</v>
       </c>
       <c r="E11">
-        <v>0.03529820318210142</v>
+        <v>0.02675109191730307</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002581779862081879</v>
+        <v>0.0008028280325439751</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.477901354746578</v>
+        <v>2.286416593429053</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.795285199514296</v>
+        <v>3.393879956407488</v>
       </c>
       <c r="L11">
-        <v>0.3242262759416974</v>
+        <v>0.5081069709095942</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.849393405968215</v>
+        <v>2.89093817535533</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.837934493259979</v>
+        <v>3.127229660980277</v>
       </c>
       <c r="C12">
-        <v>0.1952102218314735</v>
+        <v>0.546139279052511</v>
       </c>
       <c r="D12">
-        <v>0.1121437704218664</v>
+        <v>0.3299350969493275</v>
       </c>
       <c r="E12">
-        <v>0.03537769725773288</v>
+        <v>0.02728365621887185</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002580516408040404</v>
+        <v>0.0008004422899005345</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.485789449519629</v>
+        <v>2.324657339590814</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.81547078995726</v>
+        <v>3.486566095394494</v>
       </c>
       <c r="L12">
-        <v>0.3270260532519984</v>
+        <v>0.5212874234369309</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.854713781584337</v>
+        <v>2.911949633290305</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.83422150754626</v>
+        <v>3.109579110050163</v>
       </c>
       <c r="C13">
-        <v>0.1944288021523164</v>
+        <v>0.5428492279219768</v>
       </c>
       <c r="D13">
-        <v>0.1116622757520247</v>
+        <v>0.3279639708743787</v>
       </c>
       <c r="E13">
-        <v>0.03536047494185901</v>
+        <v>0.02716860553818812</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002580787458279587</v>
+        <v>0.0008009557367438771</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.484084919694169</v>
+        <v>2.316385417324639</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.811116627344461</v>
+        <v>3.466545463518401</v>
       </c>
       <c r="L13">
-        <v>0.3264219003736173</v>
+        <v>0.518440157099846</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.853563006875817</v>
+        <v>2.907392141468449</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.822139237577971</v>
+        <v>3.052211268651263</v>
       </c>
       <c r="C14">
-        <v>0.1918827211096072</v>
+        <v>0.5321595213488308</v>
       </c>
       <c r="D14">
-        <v>0.1100932443474534</v>
+        <v>0.3215559714009828</v>
       </c>
       <c r="E14">
-        <v>0.03530469730936048</v>
+        <v>0.02679474837466778</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002581675440392985</v>
+        <v>0.0008026315869886985</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.478547750915993</v>
+        <v>2.289546569245516</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.796942801929674</v>
+        <v>3.401478994193781</v>
       </c>
       <c r="L14">
-        <v>0.3244560879438581</v>
+        <v>0.5091874901723799</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.849828892794648</v>
+        <v>2.892652370818723</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.814758912563548</v>
+        <v>3.017218215287187</v>
       </c>
       <c r="C15">
-        <v>0.1903249337452735</v>
+        <v>0.5256417297972291</v>
       </c>
       <c r="D15">
-        <v>0.1091331078698943</v>
+        <v>0.3176461279565501</v>
       </c>
       <c r="E15">
-        <v>0.03527083017143084</v>
+        <v>0.0265667693787055</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002582222452926986</v>
+        <v>0.0008036592137865101</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.475172719954202</v>
+        <v>2.273210923496478</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.788280919153635</v>
+        <v>3.361793364326786</v>
       </c>
       <c r="L15">
-        <v>0.3232553968264398</v>
+        <v>0.5035447398105788</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.847556085066202</v>
+        <v>2.883716956794473</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.772777615670009</v>
+        <v>2.81881123295625</v>
       </c>
       <c r="C16">
-        <v>0.1814246532145489</v>
+        <v>0.4887234229705939</v>
       </c>
       <c r="D16">
-        <v>0.1036452645415977</v>
+        <v>0.2954606182784971</v>
       </c>
       <c r="E16">
-        <v>0.03508132560064681</v>
+        <v>0.02527527310116895</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002585404741217931</v>
+        <v>0.0008095674122909142</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.456086513246774</v>
+        <v>2.181115876814076</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.738948850040344</v>
+        <v>3.136826556517804</v>
       </c>
       <c r="L16">
-        <v>0.3164271272315204</v>
+        <v>0.4715683584772989</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.83475250276652</v>
+        <v>2.83387725360231</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.747301603238782</v>
+        <v>2.698865687346654</v>
       </c>
       <c r="C17">
-        <v>0.1759882689140113</v>
+        <v>0.4664334797993206</v>
       </c>
       <c r="D17">
-        <v>0.1002913057590433</v>
+        <v>0.2820331235790832</v>
       </c>
       <c r="E17">
-        <v>0.03496915528938693</v>
+        <v>0.02449563792641563</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002587399534941125</v>
+        <v>0.0008132113128331546</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.444604626204793</v>
+        <v>2.125895197704494</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.708957142142594</v>
+        <v>3.000860434795811</v>
       </c>
       <c r="L17">
-        <v>0.3122848579057518</v>
+        <v>0.4522524817432014</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.82709460807115</v>
+        <v>2.804456596970823</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.732750470378335</v>
+        <v>2.63047975249043</v>
       </c>
       <c r="C18">
-        <v>0.1728700020622966</v>
+        <v>0.4537340856654168</v>
       </c>
       <c r="D18">
-        <v>0.09836680305932077</v>
+        <v>0.2743718212774979</v>
       </c>
       <c r="E18">
-        <v>0.03490614012584281</v>
+        <v>0.02405160048056487</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002588562571003683</v>
+        <v>0.0008153151573075369</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.438083762371008</v>
+        <v>2.094573444228885</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.691806302035587</v>
+        <v>2.923351648387126</v>
       </c>
       <c r="L18">
-        <v>0.3099194357904622</v>
+        <v>0.4412451749431199</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.822762083330616</v>
+        <v>2.787934605278025</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.727841203557887</v>
+        <v>2.607424837957012</v>
       </c>
       <c r="C19">
-        <v>0.1718156783070697</v>
+        <v>0.44945415729876</v>
       </c>
       <c r="D19">
-        <v>0.09771598628464062</v>
+        <v>0.2717879789629336</v>
       </c>
       <c r="E19">
-        <v>0.03488506239521527</v>
+        <v>0.02390198676770083</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002588959052649398</v>
+        <v>0.0008160289273570965</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.435890186478233</v>
+        <v>2.084041290373065</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.686016396885805</v>
+        <v>2.897222878148909</v>
       </c>
       <c r="L19">
-        <v>0.3091214776698479</v>
+        <v>0.4375352173623952</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.821307529253772</v>
+        <v>2.782407045585302</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.750003007072905</v>
+        <v>2.711570599798961</v>
       </c>
       <c r="C20">
-        <v>0.1765660893777294</v>
+        <v>0.468793511665325</v>
       </c>
       <c r="D20">
-        <v>0.1006478627091525</v>
+        <v>0.2834559884976358</v>
       </c>
       <c r="E20">
-        <v>0.03498094056118717</v>
+        <v>0.02457817152327912</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002587185563070547</v>
+        <v>0.0008128226069399705</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.445818276704827</v>
+        <v>2.131727381940095</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.712139495295844</v>
+        <v>3.015261081605445</v>
       </c>
       <c r="L20">
-        <v>0.3127240386236139</v>
+        <v>0.4542978933288708</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.827902338431244</v>
+        <v>2.807546550144963</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.825683837560348</v>
+        <v>3.069030788213979</v>
       </c>
       <c r="C21">
-        <v>0.1926301993567279</v>
+        <v>0.5352930373114191</v>
       </c>
       <c r="D21">
-        <v>0.1105539106380888</v>
+        <v>0.3234349469793187</v>
       </c>
       <c r="E21">
-        <v>0.03532101839856949</v>
+        <v>0.0269043452313884</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002581413973158118</v>
+        <v>0.0008021391209206</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.480170681912384</v>
+        <v>2.297407947459988</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.801101829302922</v>
+        <v>3.420554928563206</v>
       </c>
       <c r="L21">
-        <v>0.3250327805373274</v>
+        <v>0.5119000108794864</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.850922681232873</v>
+        <v>2.89696224035265</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.876058718375077</v>
+        <v>3.309074562925446</v>
       </c>
       <c r="C22">
-        <v>0.2032075803438147</v>
+        <v>0.5800665239899558</v>
       </c>
       <c r="D22">
-        <v>0.1170700613010354</v>
+        <v>0.3502311663190483</v>
       </c>
       <c r="E22">
-        <v>0.03555663196768855</v>
+        <v>0.02846953300699617</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002577780675061092</v>
+        <v>0.0007952092744786248</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.50336650112294</v>
+        <v>2.410260035763869</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.860137868114862</v>
+        <v>3.692869022824084</v>
       </c>
       <c r="L22">
-        <v>0.3332304670214228</v>
+        <v>0.5506337450318171</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.866613819752445</v>
+        <v>2.959501644107547</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.84908891176093</v>
+        <v>3.180316266513898</v>
       </c>
       <c r="C23">
-        <v>0.1975549477419065</v>
+        <v>0.5560377974948096</v>
       </c>
       <c r="D23">
-        <v>0.113588381330942</v>
+        <v>0.3358623238203222</v>
       </c>
       <c r="E23">
-        <v>0.03542965990744662</v>
+        <v>0.02762975230338327</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002579707180022289</v>
+        <v>0.0007989040320225205</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.490918157694296</v>
+        <v>2.349576380100473</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.828547072354127</v>
+        <v>3.546785161902676</v>
       </c>
       <c r="L23">
-        <v>0.3288411432033485</v>
+        <v>0.5298522942564006</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.858179856782499</v>
+        <v>2.925719751392933</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.748781405400223</v>
+        <v>2.705824937216107</v>
       </c>
       <c r="C24">
-        <v>0.176304834396916</v>
+        <v>0.4677261843025065</v>
       </c>
       <c r="D24">
-        <v>0.1004866516970679</v>
+        <v>0.2828125307809017</v>
       </c>
       <c r="E24">
-        <v>0.03497560785148224</v>
+        <v>0.02454084511002819</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002587282249342588</v>
+        <v>0.000812998312914635</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.445269335446469</v>
+        <v>2.129089333508901</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.710700467596894</v>
+        <v>3.008748506710276</v>
       </c>
       <c r="L24">
-        <v>0.3125254351216995</v>
+        <v>0.4533728604334613</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.827536945198858</v>
+        <v>2.806148365988122</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.644479860987872</v>
+        <v>2.216625627152723</v>
       </c>
       <c r="C25">
-        <v>0.1537106092235661</v>
+        <v>0.3770007522687706</v>
       </c>
       <c r="D25">
-        <v>0.08652978800058975</v>
+        <v>0.227902508661586</v>
       </c>
       <c r="E25">
-        <v>0.03454328535397799</v>
+        <v>0.02137410534549744</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002596053363753071</v>
+        <v>0.0008285141902883427</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.399208891414673</v>
+        <v>1.907783790377238</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.587387057201795</v>
+        <v>2.454431716762457</v>
       </c>
       <c r="L25">
-        <v>0.2955795338682776</v>
+        <v>0.3747266652368069</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.797237404604459</v>
+        <v>2.692229245013635</v>
       </c>
       <c r="O25">
         <v>0</v>
